--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pageObjectModelfactory\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F3053-7C52-4BB3-9771-E55787DFBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104F675-F233-4A2E-8BF1-A1AA6858CFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{747DBF14-57DC-4BC5-99A5-E885261A4F9D}"/>
   </bookViews>
@@ -16,26 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Employeedetails" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -82,9 +73,6 @@
     <t>San Francisco</t>
   </si>
   <si>
-    <t> 2009/01/12</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -101,15 +89,21 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2009/01/12</t>
+  </si>
+  <si>
+    <t>86000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,61 +553,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>86000</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pageObjectModelfactory\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104F675-F233-4A2E-8BF1-A1AA6858CFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F0A07-2D05-47A5-A85A-2BE3A0406981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{747DBF14-57DC-4BC5-99A5-E885261A4F9D}"/>
+    <workbookView xWindow="5232" yWindow="1668" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{747DBF14-57DC-4BC5-99A5-E885261A4F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>2009/01/12</t>
   </si>
   <si>
-    <t>86000</t>
+    <t>$86,000</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
